--- a/data/pca/factorExposure/factorExposure_2019-03-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-03-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1211097218300577</v>
+        <v>-0.07553209069581902</v>
       </c>
       <c r="C2">
-        <v>-0.009305188871644124</v>
+        <v>-0.03456959183686135</v>
       </c>
       <c r="D2">
-        <v>0.04820828227709895</v>
+        <v>-0.007419580192155854</v>
       </c>
       <c r="E2">
-        <v>-0.1264529438213024</v>
+        <v>0.04193169012297135</v>
       </c>
       <c r="F2">
-        <v>-0.08535167372063598</v>
+        <v>-0.140703947255384</v>
       </c>
       <c r="G2">
-        <v>-0.0732715248994764</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1073491313798813</v>
+      </c>
+      <c r="H2">
+        <v>0.06321122862566703</v>
+      </c>
+      <c r="I2">
+        <v>0.03666818831164147</v>
+      </c>
+      <c r="J2">
+        <v>0.06753465407848062</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2152405034478102</v>
+        <v>-0.1698846283039994</v>
       </c>
       <c r="C3">
-        <v>-0.1531881556538235</v>
+        <v>-0.08467435819764971</v>
       </c>
       <c r="D3">
-        <v>-0.03691709951433347</v>
+        <v>0.05048724628744368</v>
       </c>
       <c r="E3">
-        <v>-0.3279849661149782</v>
+        <v>-0.00334849146929104</v>
       </c>
       <c r="F3">
-        <v>0.02896059028757983</v>
+        <v>-0.3691948566194158</v>
       </c>
       <c r="G3">
-        <v>-0.08513848858336283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.09228199464372004</v>
+      </c>
+      <c r="H3">
+        <v>0.2846728990460299</v>
+      </c>
+      <c r="I3">
+        <v>0.2115047578098883</v>
+      </c>
+      <c r="J3">
+        <v>0.2480294957558708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09525345791685876</v>
+        <v>-0.07554627233333169</v>
       </c>
       <c r="C4">
-        <v>-0.04386004246917913</v>
+        <v>-0.03064961128691695</v>
       </c>
       <c r="D4">
-        <v>0.0250921265594855</v>
+        <v>0.03238536301298142</v>
       </c>
       <c r="E4">
-        <v>-0.07458068806116815</v>
+        <v>0.03941168587797478</v>
       </c>
       <c r="F4">
-        <v>-0.01464445774883231</v>
+        <v>-0.08109565881128565</v>
       </c>
       <c r="G4">
-        <v>-0.03919008931362641</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04494599859493113</v>
+      </c>
+      <c r="H4">
+        <v>0.02397508916090099</v>
+      </c>
+      <c r="I4">
+        <v>0.03397336977218119</v>
+      </c>
+      <c r="J4">
+        <v>0.05570380512719585</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01815543326821097</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.008305781701741483</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.01157915227480184</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005657114658296348</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.004385759354774569</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.02107775149667212</v>
+      </c>
+      <c r="H6">
+        <v>-0.001987466000573122</v>
+      </c>
+      <c r="I6">
+        <v>-0.01545795603961028</v>
+      </c>
+      <c r="J6">
+        <v>0.001998333223958087</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04246807932846423</v>
+        <v>-0.03529051107542098</v>
       </c>
       <c r="C7">
-        <v>-0.01409858196549127</v>
+        <v>0.003640648468250753</v>
       </c>
       <c r="D7">
-        <v>0.03558813978585067</v>
+        <v>0.03917535211649735</v>
       </c>
       <c r="E7">
-        <v>-0.07538364763407485</v>
+        <v>0.02919911287123243</v>
       </c>
       <c r="F7">
-        <v>0.04874968398977406</v>
+        <v>-0.05391877337940588</v>
       </c>
       <c r="G7">
-        <v>0.02666968165168403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.005876821105914328</v>
+      </c>
+      <c r="H7">
+        <v>0.04604722404515746</v>
+      </c>
+      <c r="I7">
+        <v>0.003592092454847302</v>
+      </c>
+      <c r="J7">
+        <v>0.0527661355972071</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04427593366521933</v>
+        <v>-0.03152590297670493</v>
       </c>
       <c r="C8">
-        <v>-0.05464994661870317</v>
+        <v>-0.03663405263685791</v>
       </c>
       <c r="D8">
-        <v>0.005307688978639894</v>
+        <v>0.03578873161045704</v>
       </c>
       <c r="E8">
-        <v>-0.07301928671175198</v>
+        <v>0.01987003289340697</v>
       </c>
       <c r="F8">
-        <v>0.003223634357735057</v>
+        <v>-0.07128382177747314</v>
       </c>
       <c r="G8">
-        <v>-0.01528644329865267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02084619627841957</v>
+      </c>
+      <c r="H8">
+        <v>0.04370111986489178</v>
+      </c>
+      <c r="I8">
+        <v>0.03879583473042754</v>
+      </c>
+      <c r="J8">
+        <v>0.05796445110425131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08352792677502537</v>
+        <v>-0.06193623148976526</v>
       </c>
       <c r="C9">
-        <v>-0.03971064355056529</v>
+        <v>-0.02613886448723964</v>
       </c>
       <c r="D9">
-        <v>0.03250949824064985</v>
+        <v>0.03546212525994434</v>
       </c>
       <c r="E9">
-        <v>-0.06100710283132368</v>
+        <v>0.03415144251386571</v>
       </c>
       <c r="F9">
-        <v>-0.000631673593626942</v>
+        <v>-0.08119619849719517</v>
       </c>
       <c r="G9">
-        <v>-0.04666437818255216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04237320061835818</v>
+      </c>
+      <c r="H9">
+        <v>0.02189700457402877</v>
+      </c>
+      <c r="I9">
+        <v>0.01575987594882068</v>
+      </c>
+      <c r="J9">
+        <v>0.03272655432792233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.01759980878257936</v>
+        <v>-0.02635259869792458</v>
       </c>
       <c r="C10">
-        <v>0.1581878897268412</v>
+        <v>0.1287886862841635</v>
       </c>
       <c r="D10">
-        <v>-0.03840489363442995</v>
+        <v>-0.08630680175714033</v>
       </c>
       <c r="E10">
-        <v>-0.06719357424977862</v>
+        <v>-0.0347990037430642</v>
       </c>
       <c r="F10">
-        <v>-0.01558766414283187</v>
+        <v>-0.0664978533452696</v>
       </c>
       <c r="G10">
-        <v>0.004722953974143189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02365812107625931</v>
+      </c>
+      <c r="H10">
+        <v>0.003417058237558854</v>
+      </c>
+      <c r="I10">
+        <v>0.1097084349733179</v>
+      </c>
+      <c r="J10">
+        <v>-0.01524604443464551</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05860561849143487</v>
+        <v>-0.05110661827490569</v>
       </c>
       <c r="C11">
-        <v>-0.01520314796459621</v>
+        <v>-0.0273707283632426</v>
       </c>
       <c r="D11">
-        <v>-0.006731490883264892</v>
+        <v>0.00722357808957599</v>
       </c>
       <c r="E11">
-        <v>-0.04412346680828759</v>
+        <v>0.009161193263263026</v>
       </c>
       <c r="F11">
-        <v>-0.007300133503151476</v>
+        <v>-0.04018039175434047</v>
       </c>
       <c r="G11">
-        <v>0.009384215813154163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.006563608855089583</v>
+      </c>
+      <c r="H11">
+        <v>0.002102182850186294</v>
+      </c>
+      <c r="I11">
+        <v>-0.009104817693593675</v>
+      </c>
+      <c r="J11">
+        <v>0.04435010125755828</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04492978584031913</v>
+        <v>-0.04803375203624791</v>
       </c>
       <c r="C12">
-        <v>-0.01810641195362205</v>
+        <v>-0.01882628741829757</v>
       </c>
       <c r="D12">
-        <v>-0.002665289861259419</v>
+        <v>0.01489444670880453</v>
       </c>
       <c r="E12">
-        <v>-0.03033356169735844</v>
+        <v>0.01133373746193927</v>
       </c>
       <c r="F12">
-        <v>0.01045078370744465</v>
+        <v>-0.01524694550450136</v>
       </c>
       <c r="G12">
-        <v>-0.001159441148226922</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.002635724705284678</v>
+      </c>
+      <c r="H12">
+        <v>0.003986545352208684</v>
+      </c>
+      <c r="I12">
+        <v>-0.005877187033680752</v>
+      </c>
+      <c r="J12">
+        <v>0.03027762987381066</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.06315894463796637</v>
+        <v>-0.04265551242359624</v>
       </c>
       <c r="C13">
-        <v>-0.02804809198219368</v>
+        <v>-0.03001745507032638</v>
       </c>
       <c r="D13">
-        <v>-0.008322899760080141</v>
+        <v>-0.0008414292042257089</v>
       </c>
       <c r="E13">
-        <v>-0.1104787508112323</v>
+        <v>0.009523759490569004</v>
       </c>
       <c r="F13">
-        <v>-0.01026126786149168</v>
+        <v>-0.1047653719188887</v>
       </c>
       <c r="G13">
-        <v>-0.008731248905529355</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.02306164736070311</v>
+      </c>
+      <c r="H13">
+        <v>0.04654682868551627</v>
+      </c>
+      <c r="I13">
+        <v>0.01221581010429784</v>
+      </c>
+      <c r="J13">
+        <v>0.05720170207783651</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03342127588441267</v>
+        <v>-0.02840017147127305</v>
       </c>
       <c r="C14">
-        <v>-0.02031313299080021</v>
+        <v>-0.01378868066667188</v>
       </c>
       <c r="D14">
-        <v>0.02716125872476554</v>
+        <v>0.01418307985422012</v>
       </c>
       <c r="E14">
-        <v>-0.03310644918743486</v>
+        <v>0.02611614762441156</v>
       </c>
       <c r="F14">
-        <v>-0.01941489304099489</v>
+        <v>-0.04006826371173638</v>
       </c>
       <c r="G14">
-        <v>0.01678520784125893</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.02859177713336716</v>
+      </c>
+      <c r="H14">
+        <v>0.05191805532271412</v>
+      </c>
+      <c r="I14">
+        <v>0.00874235590497895</v>
+      </c>
+      <c r="J14">
+        <v>0.01168964318773392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.04775568182804517</v>
+        <v>-0.04563929597577618</v>
       </c>
       <c r="C16">
-        <v>-0.02829584872946557</v>
+        <v>-0.0306347325961983</v>
       </c>
       <c r="D16">
-        <v>-0.00997540702713608</v>
+        <v>0.01607686943217404</v>
       </c>
       <c r="E16">
-        <v>-0.03361808060450081</v>
+        <v>0.006135845431445414</v>
       </c>
       <c r="F16">
-        <v>0.008433207550507244</v>
+        <v>-0.03379519637427785</v>
       </c>
       <c r="G16">
-        <v>0.008938633911315464</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.00562974508050894</v>
+      </c>
+      <c r="H16">
+        <v>0.008650695147273369</v>
+      </c>
+      <c r="I16">
+        <v>-0.007488091175649176</v>
+      </c>
+      <c r="J16">
+        <v>0.03825017751585406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.0536840777638288</v>
+        <v>-0.04903014874116292</v>
       </c>
       <c r="C19">
-        <v>-0.0458465016609514</v>
+        <v>-0.03934135483826425</v>
       </c>
       <c r="D19">
-        <v>-0.0006469047253653362</v>
+        <v>0.02133831862928168</v>
       </c>
       <c r="E19">
-        <v>-0.07829044014721587</v>
+        <v>0.02071779248496812</v>
       </c>
       <c r="F19">
-        <v>0.009643188170702484</v>
+        <v>-0.07991719728714575</v>
       </c>
       <c r="G19">
-        <v>0.02923455576647739</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.01037925668297407</v>
+      </c>
+      <c r="H19">
+        <v>0.08216795407272559</v>
+      </c>
+      <c r="I19">
+        <v>0.03495454638184691</v>
+      </c>
+      <c r="J19">
+        <v>0.0512351426374683</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03422742745598367</v>
+        <v>-0.01887387402096854</v>
       </c>
       <c r="C20">
-        <v>-0.04265741016569788</v>
+        <v>-0.0222676788016237</v>
       </c>
       <c r="D20">
-        <v>0.01177432829192723</v>
+        <v>0.02097851434806811</v>
       </c>
       <c r="E20">
-        <v>-0.06812865065628838</v>
+        <v>0.0189727175075295</v>
       </c>
       <c r="F20">
-        <v>0.01030684372725008</v>
+        <v>-0.06536470712707268</v>
       </c>
       <c r="G20">
-        <v>0.00990570464353758</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01412578724639349</v>
+      </c>
+      <c r="H20">
+        <v>0.07031595042087975</v>
+      </c>
+      <c r="I20">
+        <v>0.02787284403364771</v>
+      </c>
+      <c r="J20">
+        <v>0.07344536078869789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03788314114700649</v>
+        <v>-0.02720672982501333</v>
       </c>
       <c r="C21">
-        <v>-0.03272212768559476</v>
+        <v>-0.02154589302862844</v>
       </c>
       <c r="D21">
-        <v>-0.001269128764432483</v>
+        <v>0.02847240539757031</v>
       </c>
       <c r="E21">
-        <v>-0.1079277939732429</v>
+        <v>0.008197630822585174</v>
       </c>
       <c r="F21">
-        <v>-0.03864442394972983</v>
+        <v>-0.0788802841111953</v>
       </c>
       <c r="G21">
-        <v>-0.02478479698173836</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03599437092798493</v>
+      </c>
+      <c r="H21">
+        <v>0.02430994032986276</v>
+      </c>
+      <c r="I21">
+        <v>-0.01182704065537237</v>
+      </c>
+      <c r="J21">
+        <v>0.0253860659733211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.05111101505488471</v>
+        <v>-0.0443397931896283</v>
       </c>
       <c r="C24">
-        <v>-0.02313994530129311</v>
+        <v>-0.02150590427813499</v>
       </c>
       <c r="D24">
-        <v>-0.001193794622921751</v>
+        <v>0.01056653099415254</v>
       </c>
       <c r="E24">
-        <v>-0.04596439392085103</v>
+        <v>0.01137038566794992</v>
       </c>
       <c r="F24">
-        <v>0.01087373164926364</v>
+        <v>-0.04098892704739938</v>
       </c>
       <c r="G24">
-        <v>-8.421038209479166e-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.004778782492139706</v>
+      </c>
+      <c r="H24">
+        <v>0.007667118137957307</v>
+      </c>
+      <c r="I24">
+        <v>-0.005555232062707152</v>
+      </c>
+      <c r="J24">
+        <v>0.04358409778519829</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.05226712227102102</v>
+        <v>-0.04757918430663401</v>
       </c>
       <c r="C25">
-        <v>-0.01063187454876647</v>
+        <v>-0.02016765395401966</v>
       </c>
       <c r="D25">
-        <v>-0.004556613673895637</v>
+        <v>0.008304192539388362</v>
       </c>
       <c r="E25">
-        <v>-0.04238443764689949</v>
+        <v>0.009152658993088919</v>
       </c>
       <c r="F25">
-        <v>-0.00465347400352817</v>
+        <v>-0.04393469568955134</v>
       </c>
       <c r="G25">
-        <v>-0.0008430990526299193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.004787425579916645</v>
+      </c>
+      <c r="H25">
+        <v>-0.001108919811604175</v>
+      </c>
+      <c r="I25">
+        <v>-0.01083163332296963</v>
+      </c>
+      <c r="J25">
+        <v>0.03716444844988812</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.01929136483283909</v>
+        <v>-0.01721984134748186</v>
       </c>
       <c r="C26">
-        <v>-0.02832151716751989</v>
+        <v>-0.02242943731105428</v>
       </c>
       <c r="D26">
-        <v>0.00399715744039651</v>
+        <v>0.008093708246334872</v>
       </c>
       <c r="E26">
-        <v>-0.03887561951055669</v>
+        <v>0.0001957303243160725</v>
       </c>
       <c r="F26">
-        <v>-0.02722772514300367</v>
+        <v>-0.04650814820320138</v>
       </c>
       <c r="G26">
-        <v>0.01452213542737388</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02232265654148007</v>
+      </c>
+      <c r="H26">
+        <v>0.03220495105320992</v>
+      </c>
+      <c r="I26">
+        <v>-0.005471451216687929</v>
+      </c>
+      <c r="J26">
+        <v>0.03322166965666438</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.113785588509235</v>
+        <v>-0.07647558333938287</v>
       </c>
       <c r="C27">
-        <v>-0.03452505841822015</v>
+        <v>-0.02163337571745384</v>
       </c>
       <c r="D27">
-        <v>0.02306803763411058</v>
+        <v>0.01634394396348894</v>
       </c>
       <c r="E27">
-        <v>-0.09704920942233115</v>
+        <v>0.03530260412965493</v>
       </c>
       <c r="F27">
-        <v>0.0001649123264592825</v>
+        <v>-0.06804696926113082</v>
       </c>
       <c r="G27">
-        <v>-0.0180372690520042</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01844994892029055</v>
+      </c>
+      <c r="H27">
+        <v>0.01396703699946173</v>
+      </c>
+      <c r="I27">
+        <v>0.02617347758628497</v>
+      </c>
+      <c r="J27">
+        <v>0.03817007513847887</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.01361132133109363</v>
+        <v>-0.03946200922807975</v>
       </c>
       <c r="C28">
-        <v>0.2397841989764582</v>
+        <v>0.2014378333651481</v>
       </c>
       <c r="D28">
-        <v>-0.0401597787087343</v>
+        <v>-0.1223120366160114</v>
       </c>
       <c r="E28">
-        <v>-0.0466746004194902</v>
+        <v>-0.05148606005441266</v>
       </c>
       <c r="F28">
-        <v>-0.02731329136143167</v>
+        <v>-0.05699380615581893</v>
       </c>
       <c r="G28">
-        <v>-0.009520764751208577</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02396911213025261</v>
+      </c>
+      <c r="H28">
+        <v>-0.0008268111866066279</v>
+      </c>
+      <c r="I28">
+        <v>0.1614712621128485</v>
+      </c>
+      <c r="J28">
+        <v>-0.01069395689204073</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.02284088100865714</v>
+        <v>-0.02307713299358225</v>
       </c>
       <c r="C29">
-        <v>-0.02377228185359406</v>
+        <v>-0.01177378927001199</v>
       </c>
       <c r="D29">
-        <v>0.02922961711910535</v>
+        <v>0.0181569748274508</v>
       </c>
       <c r="E29">
-        <v>-0.03416873703743264</v>
+        <v>0.02617050440893877</v>
       </c>
       <c r="F29">
-        <v>-0.01685484651238303</v>
+        <v>-0.03462736794644904</v>
       </c>
       <c r="G29">
-        <v>0.005218307168070964</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.0295547261479206</v>
+      </c>
+      <c r="H29">
+        <v>0.04982153015261199</v>
+      </c>
+      <c r="I29">
+        <v>0.003113505896852485</v>
+      </c>
+      <c r="J29">
+        <v>0.005815709433035367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1147291157086513</v>
+        <v>-0.0920651700716518</v>
       </c>
       <c r="C30">
-        <v>-0.02146315529250216</v>
+        <v>-0.05907852060331252</v>
       </c>
       <c r="D30">
-        <v>0.02579570061436857</v>
+        <v>-0.01065557803240094</v>
       </c>
       <c r="E30">
-        <v>-0.1126422215729585</v>
+        <v>0.03271356081388313</v>
       </c>
       <c r="F30">
-        <v>0.004617560878136339</v>
+        <v>-0.1032733476492999</v>
       </c>
       <c r="G30">
-        <v>0.02094587576212468</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.0140738340389914</v>
+      </c>
+      <c r="H30">
+        <v>0.02246292540875375</v>
+      </c>
+      <c r="I30">
+        <v>-0.01223029436544826</v>
+      </c>
+      <c r="J30">
+        <v>0.03406348831427802</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.06675802725200952</v>
+        <v>-0.06320067846350404</v>
       </c>
       <c r="C31">
-        <v>-0.01475836644836392</v>
+        <v>-0.02274142840553081</v>
       </c>
       <c r="D31">
-        <v>0.01613348790714451</v>
+        <v>-0.0009662287341957793</v>
       </c>
       <c r="E31">
-        <v>0.01703486091837</v>
+        <v>0.02231968384375995</v>
       </c>
       <c r="F31">
-        <v>-0.03559062438167247</v>
+        <v>-0.001411065354822603</v>
       </c>
       <c r="G31">
-        <v>0.04641579274313666</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04166349277950183</v>
+      </c>
+      <c r="H31">
+        <v>0.02979637509358395</v>
+      </c>
+      <c r="I31">
+        <v>0.01372155444345589</v>
+      </c>
+      <c r="J31">
+        <v>0.008018081075413085</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.06376885526849069</v>
+        <v>-0.04517904985591047</v>
       </c>
       <c r="C32">
-        <v>-0.04048897120040498</v>
+        <v>-0.03682518823773509</v>
       </c>
       <c r="D32">
-        <v>0.01273538068965025</v>
+        <v>0.0384410041411881</v>
       </c>
       <c r="E32">
-        <v>-0.1079473752024027</v>
+        <v>0.03166587095862106</v>
       </c>
       <c r="F32">
-        <v>0.007084080407190188</v>
+        <v>-0.08734454052190298</v>
       </c>
       <c r="G32">
-        <v>0.01656478475359822</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01335542205867189</v>
+      </c>
+      <c r="H32">
+        <v>0.03801912530944669</v>
+      </c>
+      <c r="I32">
+        <v>0.02393368566234482</v>
+      </c>
+      <c r="J32">
+        <v>0.04620843176579813</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.06828754910471664</v>
+        <v>-0.05815919980023694</v>
       </c>
       <c r="C33">
-        <v>-0.04578411416055262</v>
+        <v>-0.05332308734388553</v>
       </c>
       <c r="D33">
-        <v>0.01043448090456572</v>
+        <v>0.008913215068154321</v>
       </c>
       <c r="E33">
-        <v>-0.07620769834234128</v>
+        <v>0.01275435740043474</v>
       </c>
       <c r="F33">
-        <v>-0.0445186536559934</v>
+        <v>-0.07551553406757738</v>
       </c>
       <c r="G33">
-        <v>-0.006379517193039109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03630979618519633</v>
+      </c>
+      <c r="H33">
+        <v>0.03933221706075538</v>
+      </c>
+      <c r="I33">
+        <v>-0.007213669689813415</v>
+      </c>
+      <c r="J33">
+        <v>0.04924528429895762</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04835589013474539</v>
+        <v>-0.04616032874434994</v>
       </c>
       <c r="C34">
-        <v>-0.02183848842245124</v>
+        <v>-0.02470464756559109</v>
       </c>
       <c r="D34">
-        <v>0.001981201405522671</v>
+        <v>0.01808567339191337</v>
       </c>
       <c r="E34">
-        <v>-0.02846277207835683</v>
+        <v>0.01670354086567386</v>
       </c>
       <c r="F34">
-        <v>0.006879155358984373</v>
+        <v>-0.03115445214419169</v>
       </c>
       <c r="G34">
-        <v>0.006488054651126686</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0002035157422689446</v>
+      </c>
+      <c r="H34">
+        <v>0.01099079240839871</v>
+      </c>
+      <c r="I34">
+        <v>-0.005456449062648973</v>
+      </c>
+      <c r="J34">
+        <v>0.03404542838444492</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01299346095265451</v>
+        <v>-0.01531077219819246</v>
       </c>
       <c r="C36">
-        <v>-8.345863422391066e-06</v>
+        <v>0.00013183278151827</v>
       </c>
       <c r="D36">
-        <v>0.006465304225978223</v>
+        <v>0.0052577062561111</v>
       </c>
       <c r="E36">
-        <v>-0.02403884645671519</v>
+        <v>0.01020426743241786</v>
       </c>
       <c r="F36">
-        <v>-0.01413218049714816</v>
+        <v>-0.02680661062240793</v>
       </c>
       <c r="G36">
-        <v>0.01079284634076547</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02401494876574234</v>
+      </c>
+      <c r="H36">
+        <v>0.02825812508716767</v>
+      </c>
+      <c r="I36">
+        <v>-0.005264900419421835</v>
+      </c>
+      <c r="J36">
+        <v>-0.0007374956025525109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05155470457043158</v>
+        <v>-0.03645252715987524</v>
       </c>
       <c r="C38">
-        <v>-0.01583558589569455</v>
+        <v>-0.008783380328673266</v>
       </c>
       <c r="D38">
-        <v>0.02552434167619765</v>
+        <v>0.007783010869617552</v>
       </c>
       <c r="E38">
-        <v>-0.02428926979802631</v>
+        <v>0.01338113307302066</v>
       </c>
       <c r="F38">
-        <v>0.009759603197710428</v>
+        <v>-0.04693328912346649</v>
       </c>
       <c r="G38">
-        <v>-0.02738867169177357</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02845175309918476</v>
+      </c>
+      <c r="H38">
+        <v>0.01427905191700053</v>
+      </c>
+      <c r="I38">
+        <v>-0.01234758367170761</v>
+      </c>
+      <c r="J38">
+        <v>-0.002042035051573759</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07410748641696489</v>
+        <v>-0.05872401276017295</v>
       </c>
       <c r="C39">
-        <v>-0.02021111116525397</v>
+        <v>-0.03936852454773786</v>
       </c>
       <c r="D39">
-        <v>0.003390632278496705</v>
+        <v>0.01610550860874494</v>
       </c>
       <c r="E39">
-        <v>-0.04340479350022835</v>
+        <v>0.01782361273001363</v>
       </c>
       <c r="F39">
-        <v>-0.01198161558690748</v>
+        <v>-0.05542402975066421</v>
       </c>
       <c r="G39">
-        <v>-0.00472395348492672</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.0168306067047409</v>
+      </c>
+      <c r="H39">
+        <v>0.001299315334110715</v>
+      </c>
+      <c r="I39">
+        <v>-0.02896682337257089</v>
+      </c>
+      <c r="J39">
+        <v>0.047545415899415</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07800299015876144</v>
+        <v>-0.05785135624775484</v>
       </c>
       <c r="C40">
-        <v>-0.04375494726687186</v>
+        <v>-0.04573802999980685</v>
       </c>
       <c r="D40">
-        <v>0.007819355079997632</v>
+        <v>0.001677189869897783</v>
       </c>
       <c r="E40">
-        <v>-0.1073244540729697</v>
+        <v>0.02490581176123263</v>
       </c>
       <c r="F40">
-        <v>-0.0115812923424515</v>
+        <v>-0.09432839469986172</v>
       </c>
       <c r="G40">
-        <v>-0.03122728982186188</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02429662208162188</v>
+      </c>
+      <c r="H40">
+        <v>0.05237533785517014</v>
+      </c>
+      <c r="I40">
+        <v>0.02282685869442682</v>
+      </c>
+      <c r="J40">
+        <v>0.1149933873770353</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.002021085881250174</v>
+        <v>-0.003120105404736993</v>
       </c>
       <c r="C41">
-        <v>-0.02135867611806587</v>
+        <v>-0.01197955715850544</v>
       </c>
       <c r="D41">
-        <v>0.02732206476610333</v>
+        <v>0.007978592582568158</v>
       </c>
       <c r="E41">
-        <v>-0.01404792548837554</v>
+        <v>0.009580051056847554</v>
       </c>
       <c r="F41">
-        <v>-0.0340012347375415</v>
+        <v>-0.01393687812166874</v>
       </c>
       <c r="G41">
-        <v>0.004378103001851391</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03637405014048072</v>
+      </c>
+      <c r="H41">
+        <v>0.03023025167228475</v>
+      </c>
+      <c r="I41">
+        <v>0.02406769147855493</v>
+      </c>
+      <c r="J41">
+        <v>0.005963942786023967</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1354376792407956</v>
+        <v>-0.229129649039321</v>
       </c>
       <c r="C42">
-        <v>-0.2463902914764899</v>
+        <v>-0.2338759322818916</v>
       </c>
       <c r="D42">
-        <v>-0.9158758295888647</v>
+        <v>0.0743897995111107</v>
       </c>
       <c r="E42">
-        <v>0.1190937001894199</v>
+        <v>-0.914250952180272</v>
       </c>
       <c r="F42">
-        <v>-0.0241265402875727</v>
+        <v>0.1511492742039909</v>
       </c>
       <c r="G42">
-        <v>0.1252982851843865</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.0009709285373637754</v>
+      </c>
+      <c r="H42">
+        <v>-0.003600572321157151</v>
+      </c>
+      <c r="I42">
+        <v>0.05130967353335006</v>
+      </c>
+      <c r="J42">
+        <v>0.02360811565158329</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.003572105440532677</v>
+        <v>-0.006327538806628574</v>
       </c>
       <c r="C43">
-        <v>-0.02205710525611971</v>
+        <v>-0.01418475157893618</v>
       </c>
       <c r="D43">
-        <v>0.01796133692212938</v>
+        <v>0.006036681641674815</v>
       </c>
       <c r="E43">
-        <v>-0.037299945808266</v>
+        <v>0.009556911817019348</v>
       </c>
       <c r="F43">
-        <v>-0.01578911890346238</v>
+        <v>-0.02820552735949514</v>
       </c>
       <c r="G43">
-        <v>0.01571350313038987</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02130481158433253</v>
+      </c>
+      <c r="H43">
+        <v>0.02996493723642372</v>
+      </c>
+      <c r="I43">
+        <v>0.0145069397245474</v>
+      </c>
+      <c r="J43">
+        <v>0.01566842890112422</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.04172418864729439</v>
+        <v>-0.03090171899854812</v>
       </c>
       <c r="C44">
-        <v>-0.05239280366929435</v>
+        <v>-0.03662083014855652</v>
       </c>
       <c r="D44">
-        <v>0.01568649758470753</v>
+        <v>0.02337475992351737</v>
       </c>
       <c r="E44">
-        <v>-0.1265191906239671</v>
+        <v>0.011017343762992</v>
       </c>
       <c r="F44">
-        <v>-0.08505046939502674</v>
+        <v>-0.1212254245682703</v>
       </c>
       <c r="G44">
-        <v>-0.01149933109325188</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.06213757767405196</v>
+      </c>
+      <c r="H44">
+        <v>0.1040819133822935</v>
+      </c>
+      <c r="I44">
+        <v>0.02247684891818685</v>
+      </c>
+      <c r="J44">
+        <v>0.03292096280483819</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02930940509171329</v>
+        <v>-0.02594627704761898</v>
       </c>
       <c r="C46">
-        <v>-0.02525779174287114</v>
+        <v>-0.03122323400325035</v>
       </c>
       <c r="D46">
-        <v>0.0317765477238329</v>
+        <v>0.01569154563700618</v>
       </c>
       <c r="E46">
-        <v>-0.03575756948044222</v>
+        <v>0.02950777793654028</v>
       </c>
       <c r="F46">
-        <v>-0.03204460927395481</v>
+        <v>-0.04764482707956445</v>
       </c>
       <c r="G46">
-        <v>0.009873121747992165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.02612762769798204</v>
+      </c>
+      <c r="H46">
+        <v>0.05106683953792897</v>
+      </c>
+      <c r="I46">
+        <v>0.001228822948984444</v>
+      </c>
+      <c r="J46">
+        <v>0.01753251332034206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.09030115989453201</v>
+        <v>-0.0916112796391515</v>
       </c>
       <c r="C47">
-        <v>-0.01296377834639597</v>
+        <v>-0.01531992338687862</v>
       </c>
       <c r="D47">
-        <v>0.01553021178060158</v>
+        <v>0.0003473113311753789</v>
       </c>
       <c r="E47">
-        <v>0.02036932286946137</v>
+        <v>0.02512279839754989</v>
       </c>
       <c r="F47">
-        <v>-0.01839841711696544</v>
+        <v>0.01175419042099938</v>
       </c>
       <c r="G47">
-        <v>0.01817484194628822</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04158727744566314</v>
+      </c>
+      <c r="H47">
+        <v>0.05401395405631289</v>
+      </c>
+      <c r="I47">
+        <v>0.02354410364273052</v>
+      </c>
+      <c r="J47">
+        <v>0.02150288390687347</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01837634144627958</v>
+        <v>-0.01912834189003697</v>
       </c>
       <c r="C48">
-        <v>-0.02339734726460679</v>
+        <v>-0.01588877533230024</v>
       </c>
       <c r="D48">
-        <v>0.01478893970437234</v>
+        <v>0.01095355657569987</v>
       </c>
       <c r="E48">
-        <v>-0.03129073873584325</v>
+        <v>0.01361631922000816</v>
       </c>
       <c r="F48">
-        <v>-0.01004477223987865</v>
+        <v>-0.0297895919046432</v>
       </c>
       <c r="G48">
-        <v>0.001368174876313312</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.0153287259051514</v>
+      </c>
+      <c r="H48">
+        <v>0.02117128203500359</v>
+      </c>
+      <c r="I48">
+        <v>0.01206686474029994</v>
+      </c>
+      <c r="J48">
+        <v>0.009796620688087915</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.09448162371346902</v>
+        <v>-0.09143248611691111</v>
       </c>
       <c r="C50">
-        <v>-0.03646413651895901</v>
+        <v>-0.02613884628832764</v>
       </c>
       <c r="D50">
-        <v>0.0272092482499731</v>
+        <v>0.02544898445877895</v>
       </c>
       <c r="E50">
-        <v>0.01756366221940155</v>
+        <v>0.02558110184099719</v>
       </c>
       <c r="F50">
-        <v>-0.01854293280958724</v>
+        <v>0.007428402112575306</v>
       </c>
       <c r="G50">
-        <v>0.05093899958175521</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.0003610379341487919</v>
+      </c>
+      <c r="H50">
+        <v>0.03459099320657535</v>
+      </c>
+      <c r="I50">
+        <v>-0.003311967003013126</v>
+      </c>
+      <c r="J50">
+        <v>0.002104339631680641</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.05492731063531987</v>
+        <v>-0.03869767850644078</v>
       </c>
       <c r="C51">
-        <v>0.02188721465810095</v>
+        <v>0.001220370212540702</v>
       </c>
       <c r="D51">
-        <v>-0.005270257938996113</v>
+        <v>-0.01623176507572227</v>
       </c>
       <c r="E51">
-        <v>-0.08220006926359505</v>
+        <v>0.008253341599077353</v>
       </c>
       <c r="F51">
-        <v>-0.06615445651208984</v>
+        <v>-0.09791279588805046</v>
       </c>
       <c r="G51">
-        <v>0.02215610042795629</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.05407046671471223</v>
+      </c>
+      <c r="H51">
+        <v>0.05424072953230226</v>
+      </c>
+      <c r="I51">
+        <v>0.02141452921369138</v>
+      </c>
+      <c r="J51">
+        <v>0.04166756813039777</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1423808131376001</v>
+        <v>-0.1262456857562919</v>
       </c>
       <c r="C53">
-        <v>-0.01355398203689486</v>
+        <v>-0.03070549029997682</v>
       </c>
       <c r="D53">
-        <v>0.05035996658559753</v>
+        <v>0.00791692398338106</v>
       </c>
       <c r="E53">
-        <v>0.04924682484761639</v>
+        <v>0.05347701192085393</v>
       </c>
       <c r="F53">
-        <v>-0.0155804278497008</v>
+        <v>0.04106303167551745</v>
       </c>
       <c r="G53">
-        <v>0.03459491680670717</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.0217080197426967</v>
+      </c>
+      <c r="H53">
+        <v>-0.002519280591535121</v>
+      </c>
+      <c r="I53">
+        <v>0.04076214079480608</v>
+      </c>
+      <c r="J53">
+        <v>0.03153665326664366</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.0270257056485899</v>
+        <v>-0.0255363098934833</v>
       </c>
       <c r="C54">
-        <v>-0.004203447642820181</v>
+        <v>0.0001539252709467017</v>
       </c>
       <c r="D54">
-        <v>0.0223702993126229</v>
+        <v>0.005310287207571378</v>
       </c>
       <c r="E54">
-        <v>-0.03659644768258896</v>
+        <v>0.02609650710712766</v>
       </c>
       <c r="F54">
-        <v>-0.04622050965118704</v>
+        <v>-0.03502364277940718</v>
       </c>
       <c r="G54">
-        <v>-0.01038807519401268</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.05107162434054361</v>
+      </c>
+      <c r="H54">
+        <v>0.04286105278008216</v>
+      </c>
+      <c r="I54">
+        <v>0.02884301956840669</v>
+      </c>
+      <c r="J54">
+        <v>-0.00984071700507499</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.1021495739659562</v>
+        <v>-0.1009867432317531</v>
       </c>
       <c r="C55">
-        <v>-0.0005298233770876376</v>
+        <v>-0.01328819428641637</v>
       </c>
       <c r="D55">
-        <v>0.0361305908984996</v>
+        <v>0.01840879897844668</v>
       </c>
       <c r="E55">
-        <v>0.01313708037557379</v>
+        <v>0.03524380264956656</v>
       </c>
       <c r="F55">
-        <v>0.03858587704759545</v>
+        <v>0.02775716851544991</v>
       </c>
       <c r="G55">
-        <v>0.006772864140255493</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.008298951597469432</v>
+      </c>
+      <c r="H55">
+        <v>0.008808257628695514</v>
+      </c>
+      <c r="I55">
+        <v>0.02005434095376237</v>
+      </c>
+      <c r="J55">
+        <v>0.02540957577797477</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1793356277689954</v>
+        <v>-0.1675618442031699</v>
       </c>
       <c r="C56">
-        <v>0.01102359326782026</v>
+        <v>-0.009091480774000829</v>
       </c>
       <c r="D56">
-        <v>0.08837108040344135</v>
+        <v>0.00239116867538674</v>
       </c>
       <c r="E56">
-        <v>0.1005849627081748</v>
+        <v>0.08830152293192091</v>
       </c>
       <c r="F56">
-        <v>0.06962775136552171</v>
+        <v>0.08540710568354452</v>
       </c>
       <c r="G56">
-        <v>0.04316380336205883</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.03228390919018634</v>
+      </c>
+      <c r="H56">
+        <v>-0.04526775963162905</v>
+      </c>
+      <c r="I56">
+        <v>0.03377118126268602</v>
+      </c>
+      <c r="J56">
+        <v>0.0366377343735731</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.08914388663672108</v>
+        <v>-0.0674733622526264</v>
       </c>
       <c r="C57">
-        <v>-0.02967600893311561</v>
+        <v>-0.0366685706083388</v>
       </c>
       <c r="D57">
-        <v>0.02916500832157784</v>
+        <v>-0.0004255615354870254</v>
       </c>
       <c r="E57">
-        <v>-0.04326743486414569</v>
+        <v>0.009674058200747</v>
       </c>
       <c r="F57">
-        <v>-0.04584280788617204</v>
+        <v>-0.06488446613898019</v>
       </c>
       <c r="G57">
-        <v>0.02633553094676028</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.02580221435407314</v>
+      </c>
+      <c r="H57">
+        <v>0.03284339384546287</v>
+      </c>
+      <c r="I57">
+        <v>-0.007181173777343549</v>
+      </c>
+      <c r="J57">
+        <v>0.03780079755832118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1865041446797037</v>
+        <v>-0.2079538740569623</v>
       </c>
       <c r="C58">
-        <v>-0.03254687262373449</v>
+        <v>-0.1231984680677701</v>
       </c>
       <c r="D58">
-        <v>-0.01936919188256336</v>
+        <v>-0.03319088175780366</v>
       </c>
       <c r="E58">
-        <v>-0.1271773881822295</v>
+        <v>-0.004290105833504774</v>
       </c>
       <c r="F58">
-        <v>0.05104905481517045</v>
+        <v>-0.2296144445857788</v>
       </c>
       <c r="G58">
-        <v>0.07029368226662108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1703658410746624</v>
+      </c>
+      <c r="H58">
+        <v>0.3785640084415592</v>
+      </c>
+      <c r="I58">
+        <v>-0.2041508628845843</v>
+      </c>
+      <c r="J58">
+        <v>-0.7430501049378904</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.02010982008765336</v>
+        <v>-0.04166322091518224</v>
       </c>
       <c r="C59">
-        <v>0.1965289589281548</v>
+        <v>0.1605169490855169</v>
       </c>
       <c r="D59">
-        <v>-0.009154697762284558</v>
+        <v>-0.11824661296993</v>
       </c>
       <c r="E59">
-        <v>-0.06160873245294689</v>
+        <v>-0.01400108097709744</v>
       </c>
       <c r="F59">
-        <v>-0.01241350041675692</v>
+        <v>-0.07199661276667238</v>
       </c>
       <c r="G59">
-        <v>-0.006965750087548975</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.001540159369669665</v>
+      </c>
+      <c r="H59">
+        <v>-0.02427921133210324</v>
+      </c>
+      <c r="I59">
+        <v>0.0618244513699728</v>
+      </c>
+      <c r="J59">
+        <v>-0.01832099853565642</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1944320300426983</v>
+        <v>-0.1856161859816507</v>
       </c>
       <c r="C60">
-        <v>0.09320294764041806</v>
+        <v>0.02115707803949921</v>
       </c>
       <c r="D60">
-        <v>-0.004664378060285401</v>
+        <v>-0.07383751289885961</v>
       </c>
       <c r="E60">
-        <v>-0.1858020653549513</v>
+        <v>0.00793361704682043</v>
       </c>
       <c r="F60">
-        <v>-0.04679742883296411</v>
+        <v>-0.2124666407902348</v>
       </c>
       <c r="G60">
-        <v>-0.0103436202106253</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.06916221499303236</v>
+      </c>
+      <c r="H60">
+        <v>-0.2735147663659214</v>
+      </c>
+      <c r="I60">
+        <v>-0.09833070364758488</v>
+      </c>
+      <c r="J60">
+        <v>0.02511616973421669</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.04388618229969738</v>
+        <v>-0.03756705086183755</v>
       </c>
       <c r="C61">
-        <v>-0.01258928672442942</v>
+        <v>-0.02307642940632244</v>
       </c>
       <c r="D61">
-        <v>-0.0002827540350817678</v>
+        <v>0.01403457808514002</v>
       </c>
       <c r="E61">
-        <v>-0.0384899964948438</v>
+        <v>0.00665667086121511</v>
       </c>
       <c r="F61">
-        <v>-0.005635981309793307</v>
+        <v>-0.03932931423562235</v>
       </c>
       <c r="G61">
-        <v>-0.00633824234619551</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.01116480890294863</v>
+      </c>
+      <c r="H61">
+        <v>-0.003488372661717989</v>
+      </c>
+      <c r="I61">
+        <v>-0.040337686812556</v>
+      </c>
+      <c r="J61">
+        <v>0.02331619657586663</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04272784315962866</v>
+        <v>-0.03128849617876625</v>
       </c>
       <c r="C63">
-        <v>-0.01279085996332978</v>
+        <v>-0.01727156355799997</v>
       </c>
       <c r="D63">
-        <v>0.01705431541313678</v>
+        <v>0.00797638765093554</v>
       </c>
       <c r="E63">
-        <v>-0.04350757785307752</v>
+        <v>0.01389667553732404</v>
       </c>
       <c r="F63">
-        <v>-0.0175143989348962</v>
+        <v>-0.02886713096690951</v>
       </c>
       <c r="G63">
-        <v>0.01378905973944229</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01217905073045798</v>
+      </c>
+      <c r="H63">
+        <v>0.0488008806404557</v>
+      </c>
+      <c r="I63">
+        <v>0.03569054269963032</v>
+      </c>
+      <c r="J63">
+        <v>0.0276431827135096</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.07523934384525621</v>
+        <v>-0.0594993096076021</v>
       </c>
       <c r="C64">
-        <v>-0.05428802708670018</v>
+        <v>-0.03253004671818303</v>
       </c>
       <c r="D64">
-        <v>0.06143948663589471</v>
+        <v>0.03499885321319428</v>
       </c>
       <c r="E64">
-        <v>-0.0563265644070993</v>
+        <v>0.04498426607558828</v>
       </c>
       <c r="F64">
-        <v>-0.03476815831492538</v>
+        <v>-0.04925526356069252</v>
       </c>
       <c r="G64">
-        <v>-0.05677811479869514</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05442058931155274</v>
+      </c>
+      <c r="H64">
+        <v>-0.01247724579464718</v>
+      </c>
+      <c r="I64">
+        <v>0.0380941405330647</v>
+      </c>
+      <c r="J64">
+        <v>0.0964686584714565</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.0201538485867671</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.00748365611207897</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.01185483127880587</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.006772338324432625</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.0006751033111682444</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02145318841262692</v>
+      </c>
+      <c r="H65">
+        <v>-0.005947479712886267</v>
+      </c>
+      <c r="I65">
+        <v>-0.01654393742457378</v>
+      </c>
+      <c r="J65">
+        <v>0.004133437143883193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.08840088730175756</v>
+        <v>-0.06979404181064061</v>
       </c>
       <c r="C66">
-        <v>-0.03477736930258452</v>
+        <v>-0.05358524053515274</v>
       </c>
       <c r="D66">
-        <v>0.03827965729928136</v>
+        <v>0.01459996347836885</v>
       </c>
       <c r="E66">
-        <v>-0.08182243764435775</v>
+        <v>0.04769915613065106</v>
       </c>
       <c r="F66">
-        <v>-0.0341719652329739</v>
+        <v>-0.07004539200614089</v>
       </c>
       <c r="G66">
-        <v>-0.009577017845286421</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01500506324669427</v>
+      </c>
+      <c r="H66">
+        <v>0.0008169007475965296</v>
+      </c>
+      <c r="I66">
+        <v>-0.03245960807541057</v>
+      </c>
+      <c r="J66">
+        <v>0.07792950062735514</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06137808359215421</v>
+        <v>-0.04724856524218295</v>
       </c>
       <c r="C67">
-        <v>0.01240383924275833</v>
+        <v>0.004774629569881448</v>
       </c>
       <c r="D67">
-        <v>0.01225949536607843</v>
+        <v>-0.006085894114603629</v>
       </c>
       <c r="E67">
-        <v>-0.01643775495095379</v>
+        <v>0.009710574136036152</v>
       </c>
       <c r="F67">
-        <v>0.005605859258060743</v>
+        <v>-0.0364341609461246</v>
       </c>
       <c r="G67">
-        <v>-0.02417250510452485</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03516638636127295</v>
+      </c>
+      <c r="H67">
+        <v>-0.007164568303705859</v>
+      </c>
+      <c r="I67">
+        <v>-0.03810677322326914</v>
+      </c>
+      <c r="J67">
+        <v>0.009273035071529167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.02874243996383756</v>
+        <v>-0.04844695908437083</v>
       </c>
       <c r="C68">
-        <v>0.246431557271224</v>
+        <v>0.1945880668557178</v>
       </c>
       <c r="D68">
-        <v>-0.03233561996260367</v>
+        <v>-0.1375754032668877</v>
       </c>
       <c r="E68">
-        <v>-0.04509454438608292</v>
+        <v>-0.03100150789768552</v>
       </c>
       <c r="F68">
-        <v>-0.0213488763373842</v>
+        <v>-0.05380807159148312</v>
       </c>
       <c r="G68">
-        <v>0.01843905387966562</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.004470834004196718</v>
+      </c>
+      <c r="H68">
+        <v>-0.01293240154373018</v>
+      </c>
+      <c r="I68">
+        <v>0.1635860108590832</v>
+      </c>
+      <c r="J68">
+        <v>-0.08297362425248332</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.07099327321408766</v>
+        <v>-0.07267299930696705</v>
       </c>
       <c r="C69">
-        <v>-0.01720444288985703</v>
+        <v>-0.01987483614173803</v>
       </c>
       <c r="D69">
-        <v>0.02663242331962775</v>
+        <v>0.003375388475908144</v>
       </c>
       <c r="E69">
-        <v>0.01288617045618656</v>
+        <v>0.031221888855172</v>
       </c>
       <c r="F69">
-        <v>-0.01505466300056584</v>
+        <v>0.002476725724691878</v>
       </c>
       <c r="G69">
-        <v>0.02520185148704959</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02575618931023788</v>
+      </c>
+      <c r="H69">
+        <v>0.02661756346722659</v>
+      </c>
+      <c r="I69">
+        <v>-0.001858325931781639</v>
+      </c>
+      <c r="J69">
+        <v>0.0263046256466537</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.02049967878448</v>
+        <v>-0.04713054581649666</v>
       </c>
       <c r="C71">
-        <v>0.2807544636271242</v>
+        <v>0.2083696486150549</v>
       </c>
       <c r="D71">
-        <v>-0.03770902412548122</v>
+        <v>-0.1528854146747825</v>
       </c>
       <c r="E71">
-        <v>-0.077955114966848</v>
+        <v>-0.05304155260983583</v>
       </c>
       <c r="F71">
-        <v>-0.030378014483059</v>
+        <v>-0.07852653090599583</v>
       </c>
       <c r="G71">
-        <v>0.01604193349952408</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01554028702137374</v>
+      </c>
+      <c r="H71">
+        <v>-0.01988006953148541</v>
+      </c>
+      <c r="I71">
+        <v>0.1366917871136251</v>
+      </c>
+      <c r="J71">
+        <v>-0.04471106719003975</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.123104542522347</v>
+        <v>-0.1279815337258312</v>
       </c>
       <c r="C72">
-        <v>0.005773587911123755</v>
+        <v>-0.02680768169316711</v>
       </c>
       <c r="D72">
-        <v>0.04422393951006203</v>
+        <v>0.004489240459214468</v>
       </c>
       <c r="E72">
-        <v>-0.08775869035916145</v>
+        <v>0.0620646693094322</v>
       </c>
       <c r="F72">
-        <v>0.02100265642164272</v>
+        <v>-0.0828197867388907</v>
       </c>
       <c r="G72">
-        <v>0.005624375585364828</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.0393962435220827</v>
+      </c>
+      <c r="H72">
+        <v>-0.02168723033703975</v>
+      </c>
+      <c r="I72">
+        <v>-0.08435189496404483</v>
+      </c>
+      <c r="J72">
+        <v>-0.08853639500941608</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2953064784313922</v>
+        <v>-0.2685951589790443</v>
       </c>
       <c r="C73">
-        <v>0.1731343323751657</v>
+        <v>0.02610319599096582</v>
       </c>
       <c r="D73">
-        <v>-0.07815068511012883</v>
+        <v>-0.1266522103913203</v>
       </c>
       <c r="E73">
-        <v>-0.3272166440808607</v>
+        <v>-0.034780944367554</v>
       </c>
       <c r="F73">
-        <v>-0.002802475843579853</v>
+        <v>-0.3162923188527795</v>
       </c>
       <c r="G73">
-        <v>-0.0505039286660782</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1746746693014803</v>
+      </c>
+      <c r="H73">
+        <v>-0.4612838895902516</v>
+      </c>
+      <c r="I73">
+        <v>-0.2874285408837171</v>
+      </c>
+      <c r="J73">
+        <v>0.05217463715512217</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1621068652154431</v>
+        <v>-0.1510328960666355</v>
       </c>
       <c r="C74">
-        <v>-0.003766553252154911</v>
+        <v>-0.02580953341238107</v>
       </c>
       <c r="D74">
-        <v>0.04644906066608715</v>
+        <v>-0.003726144267324936</v>
       </c>
       <c r="E74">
-        <v>0.03150459763349456</v>
+        <v>0.05126174133746884</v>
       </c>
       <c r="F74">
-        <v>0.03081951971085137</v>
+        <v>0.05472951288543718</v>
       </c>
       <c r="G74">
-        <v>0.07229099307993678</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01879164394514619</v>
+      </c>
+      <c r="H74">
+        <v>-0.03134326058217021</v>
+      </c>
+      <c r="I74">
+        <v>0.0242540326765739</v>
+      </c>
+      <c r="J74">
+        <v>0.08499695906470192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2335746900766875</v>
+        <v>-0.2430129219619571</v>
       </c>
       <c r="C75">
-        <v>-0.003787688758937511</v>
+        <v>-0.03036829085523794</v>
       </c>
       <c r="D75">
-        <v>0.07626792532523158</v>
+        <v>-0.02013659098925026</v>
       </c>
       <c r="E75">
-        <v>0.1239934984901166</v>
+        <v>0.1064722886519992</v>
       </c>
       <c r="F75">
-        <v>0.002875793781432914</v>
+        <v>0.1419081133730882</v>
       </c>
       <c r="G75">
-        <v>0.05334912120535846</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.004062331571984137</v>
+      </c>
+      <c r="H75">
+        <v>-0.02391773035539251</v>
+      </c>
+      <c r="I75">
+        <v>0.08587589570822314</v>
+      </c>
+      <c r="J75">
+        <v>0.01664714800121529</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2464205522192918</v>
+        <v>-0.2673765822029368</v>
       </c>
       <c r="C76">
-        <v>0.0100254550847548</v>
+        <v>-0.0004881543300067729</v>
       </c>
       <c r="D76">
-        <v>0.1142408517364819</v>
+        <v>0.00879282021537474</v>
       </c>
       <c r="E76">
-        <v>0.1307000306352358</v>
+        <v>0.1327681253364064</v>
       </c>
       <c r="F76">
-        <v>0.05594142331346513</v>
+        <v>0.1892030803659099</v>
       </c>
       <c r="G76">
-        <v>0.06101760924154655</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.05824842229792417</v>
+      </c>
+      <c r="H76">
+        <v>-0.04807543677302933</v>
+      </c>
+      <c r="I76">
+        <v>0.05348092186638376</v>
+      </c>
+      <c r="J76">
+        <v>0.06303866798318822</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1372166950145431</v>
+        <v>-0.1294416685505437</v>
       </c>
       <c r="C77">
-        <v>-0.06096174499865384</v>
+        <v>-0.06158535261715616</v>
       </c>
       <c r="D77">
-        <v>-0.03723333785851327</v>
+        <v>0.02513334058562187</v>
       </c>
       <c r="E77">
-        <v>-0.1467465409601127</v>
+        <v>-0.02909946378572104</v>
       </c>
       <c r="F77">
-        <v>-0.007752468778176981</v>
+        <v>-0.1574532476725314</v>
       </c>
       <c r="G77">
-        <v>-0.05618403406592528</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.003243884021992336</v>
+      </c>
+      <c r="H77">
+        <v>0.2229901714286218</v>
+      </c>
+      <c r="I77">
+        <v>0.2498703223919829</v>
+      </c>
+      <c r="J77">
+        <v>0.08206134361897481</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.08607492981633735</v>
+        <v>-0.07860823012759238</v>
       </c>
       <c r="C78">
-        <v>-0.05488037968038754</v>
+        <v>-0.06236462446698796</v>
       </c>
       <c r="D78">
-        <v>-0.01020783737381462</v>
+        <v>0.04291725782379729</v>
       </c>
       <c r="E78">
-        <v>-0.05417194270593384</v>
+        <v>0.01250350517388064</v>
       </c>
       <c r="F78">
-        <v>-0.01193768277822254</v>
+        <v>-0.07254646876550121</v>
       </c>
       <c r="G78">
-        <v>0.007950989278742356</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01063052626586488</v>
+      </c>
+      <c r="H78">
+        <v>0.02059541822293314</v>
+      </c>
+      <c r="I78">
+        <v>0.03169892156781891</v>
+      </c>
+      <c r="J78">
+        <v>0.04427400184961961</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.05510376689465096</v>
+        <v>-0.1491379049385469</v>
       </c>
       <c r="C80">
-        <v>-0.02993696733440029</v>
+        <v>0.5392542515914148</v>
       </c>
       <c r="D80">
-        <v>-0.07942453549308733</v>
+        <v>0.8105411899825469</v>
       </c>
       <c r="E80">
-        <v>0.05385861085948129</v>
+        <v>-0.05336153756381692</v>
       </c>
       <c r="F80">
-        <v>0.5655304495062417</v>
+        <v>-0.04925985811469912</v>
       </c>
       <c r="G80">
-        <v>-0.7780972807646893</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04586700122574582</v>
+      </c>
+      <c r="H80">
+        <v>-0.05208785282819721</v>
+      </c>
+      <c r="I80">
+        <v>-0.03711457672701002</v>
+      </c>
+      <c r="J80">
+        <v>-0.09483285669598786</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1631855516321017</v>
+        <v>-0.1796822682986327</v>
       </c>
       <c r="C81">
-        <v>0.005792355267009844</v>
+        <v>-0.003227327576557941</v>
       </c>
       <c r="D81">
-        <v>0.0661315604389439</v>
+        <v>-0.009933505122647516</v>
       </c>
       <c r="E81">
-        <v>0.1589858324747025</v>
+        <v>0.08487912788526902</v>
       </c>
       <c r="F81">
-        <v>0.05136072870086995</v>
+        <v>0.1575865238947229</v>
       </c>
       <c r="G81">
-        <v>0.08152765394295536</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.03106581975017555</v>
+      </c>
+      <c r="H81">
+        <v>-0.01342628803247221</v>
+      </c>
+      <c r="I81">
+        <v>0.05963421081333302</v>
+      </c>
+      <c r="J81">
+        <v>-0.005390337890773811</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.09485133102251218</v>
+        <v>-0.07077150386122183</v>
       </c>
       <c r="C83">
-        <v>-0.06616247126142541</v>
+        <v>-0.05231628876846597</v>
       </c>
       <c r="D83">
-        <v>-0.06706113518508354</v>
+        <v>0.0143092924863378</v>
       </c>
       <c r="E83">
-        <v>-0.01504278890381306</v>
+        <v>-0.03549557824845445</v>
       </c>
       <c r="F83">
-        <v>-0.06357297319020994</v>
+        <v>-0.04442219819073711</v>
       </c>
       <c r="G83">
-        <v>-0.003038148836077754</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05801336861775255</v>
+      </c>
+      <c r="H83">
+        <v>0.0255378919252309</v>
+      </c>
+      <c r="I83">
+        <v>0.02346403868575165</v>
+      </c>
+      <c r="J83">
+        <v>0.07571828545214405</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2360677085136935</v>
+        <v>-0.2496915786919048</v>
       </c>
       <c r="C85">
-        <v>-0.05601533088317303</v>
+        <v>-0.04471390600249105</v>
       </c>
       <c r="D85">
-        <v>0.07189418280510639</v>
+        <v>0.01551657619653613</v>
       </c>
       <c r="E85">
-        <v>0.164876453507217</v>
+        <v>0.1007833541339235</v>
       </c>
       <c r="F85">
-        <v>0.04676156764573165</v>
+        <v>0.1885704375389441</v>
       </c>
       <c r="G85">
-        <v>0.0405975405952067</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.01046436379159012</v>
+      </c>
+      <c r="H85">
+        <v>0.01919297498591445</v>
+      </c>
+      <c r="I85">
+        <v>0.0577963409696745</v>
+      </c>
+      <c r="J85">
+        <v>0.07275296098293273</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04025007461561511</v>
+        <v>-0.02623369181936799</v>
       </c>
       <c r="C86">
-        <v>-0.05756766254146949</v>
+        <v>-0.05326773185407464</v>
       </c>
       <c r="D86">
-        <v>0.02184026042897718</v>
+        <v>0.03328865867761133</v>
       </c>
       <c r="E86">
-        <v>-0.06374302417755645</v>
+        <v>0.01381335045356156</v>
       </c>
       <c r="F86">
-        <v>0.002526928337333439</v>
+        <v>-0.06597500641774109</v>
       </c>
       <c r="G86">
-        <v>0.01258370140205369</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.006437230172826503</v>
+      </c>
+      <c r="H86">
+        <v>0.06746777411095249</v>
+      </c>
+      <c r="I86">
+        <v>0.02503125996413401</v>
+      </c>
+      <c r="J86">
+        <v>0.03513552738541013</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02864462930653201</v>
+        <v>-0.03365748065768908</v>
       </c>
       <c r="C87">
-        <v>0.0541033130213886</v>
+        <v>0.008719610344105349</v>
       </c>
       <c r="D87">
-        <v>-0.003869545319384951</v>
+        <v>-0.008534100905486225</v>
       </c>
       <c r="E87">
-        <v>-0.09483458905637662</v>
+        <v>0.005031797575372694</v>
       </c>
       <c r="F87">
-        <v>0.01887854766480318</v>
+        <v>-0.09994618824363509</v>
       </c>
       <c r="G87">
-        <v>0.01512371713799213</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02447364885129831</v>
+      </c>
+      <c r="H87">
+        <v>0.01784214482894952</v>
+      </c>
+      <c r="I87">
+        <v>-0.01256439678607493</v>
+      </c>
+      <c r="J87">
+        <v>0.01930733958952667</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.03921622246576672</v>
+        <v>-0.03032304002434032</v>
       </c>
       <c r="C88">
-        <v>-0.03144929489141761</v>
+        <v>-0.01231221104927857</v>
       </c>
       <c r="D88">
-        <v>0.007001329123491661</v>
+        <v>0.01924531347126933</v>
       </c>
       <c r="E88">
-        <v>0.009529761644618944</v>
+        <v>0.01048803351663273</v>
       </c>
       <c r="F88">
-        <v>0.008880307983687776</v>
+        <v>0.01529002150137401</v>
       </c>
       <c r="G88">
-        <v>0.007483866511837062</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.03930649161788153</v>
+      </c>
+      <c r="H88">
+        <v>0.03400513099000118</v>
+      </c>
+      <c r="I88">
+        <v>-0.02092044714972939</v>
+      </c>
+      <c r="J88">
+        <v>0.02337995347356759</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.02792513398561947</v>
+        <v>-0.06972483415026308</v>
       </c>
       <c r="C89">
-        <v>0.386116080088452</v>
+        <v>0.3046348780380499</v>
       </c>
       <c r="D89">
-        <v>-0.1092897797867168</v>
+        <v>-0.234375662553319</v>
       </c>
       <c r="E89">
-        <v>0.001716085170260171</v>
+        <v>-0.07535974922606403</v>
       </c>
       <c r="F89">
-        <v>-0.02892032070248943</v>
+        <v>-0.03657126413338212</v>
       </c>
       <c r="G89">
-        <v>0.008825045938762568</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.03641373503835721</v>
+      </c>
+      <c r="H89">
+        <v>0.04879275980386746</v>
+      </c>
+      <c r="I89">
+        <v>0.2503050826589766</v>
+      </c>
+      <c r="J89">
+        <v>-0.07725299102184768</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.02418362097500053</v>
+        <v>-0.04850035878238812</v>
       </c>
       <c r="C90">
-        <v>0.3021100854469307</v>
+        <v>0.2713849860635394</v>
       </c>
       <c r="D90">
-        <v>-0.06066677652392675</v>
+        <v>-0.1874388970106498</v>
       </c>
       <c r="E90">
-        <v>-0.04560158720619528</v>
+        <v>-0.06008738849821634</v>
       </c>
       <c r="F90">
-        <v>-0.04118439809662454</v>
+        <v>-0.03546835199906859</v>
       </c>
       <c r="G90">
-        <v>0.00944176346593625</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02208420563926904</v>
+      </c>
+      <c r="H90">
+        <v>0.009750190992938241</v>
+      </c>
+      <c r="I90">
+        <v>0.2201255387687527</v>
+      </c>
+      <c r="J90">
+        <v>-0.05637344883205973</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.2734008633961874</v>
+        <v>-0.2921183667387508</v>
       </c>
       <c r="C91">
-        <v>-0.04653018203005576</v>
+        <v>-0.04254979708404301</v>
       </c>
       <c r="D91">
-        <v>0.0819572699886502</v>
+        <v>0.00316283865673559</v>
       </c>
       <c r="E91">
-        <v>0.2710711454717456</v>
+        <v>0.09426549837637213</v>
       </c>
       <c r="F91">
-        <v>0.06481971336129387</v>
+        <v>0.2818727493917425</v>
       </c>
       <c r="G91">
-        <v>0.02617092177990769</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.02757589614482374</v>
+      </c>
+      <c r="H91">
+        <v>-0.01543041124091621</v>
+      </c>
+      <c r="I91">
+        <v>0.09780496618798817</v>
+      </c>
+      <c r="J91">
+        <v>0.0426116089473875</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.05537580221202616</v>
+        <v>-0.1097500212196875</v>
       </c>
       <c r="C92">
-        <v>0.3997719004350759</v>
+        <v>0.3657987171375456</v>
       </c>
       <c r="D92">
-        <v>-0.1747535377626917</v>
+        <v>-0.2257410534554727</v>
       </c>
       <c r="E92">
-        <v>0.103513116188722</v>
+        <v>-0.09848659757028283</v>
       </c>
       <c r="F92">
-        <v>0.09163555182296482</v>
+        <v>0.1309020009240106</v>
       </c>
       <c r="G92">
-        <v>-0.0459517717134031</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.08622703999634847</v>
+      </c>
+      <c r="H92">
+        <v>0.4420984681488179</v>
+      </c>
+      <c r="I92">
+        <v>-0.6508780160612069</v>
+      </c>
+      <c r="J92">
+        <v>0.3456980508987353</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.01537354499257679</v>
+        <v>-0.05592040099236784</v>
       </c>
       <c r="C93">
-        <v>0.365589167144837</v>
+        <v>0.3206852840014763</v>
       </c>
       <c r="D93">
-        <v>-0.09022672901001111</v>
+        <v>-0.2390676727518257</v>
       </c>
       <c r="E93">
-        <v>0.03229585828666943</v>
+        <v>-0.0971139970159325</v>
       </c>
       <c r="F93">
-        <v>0.00868148544164646</v>
+        <v>-0.004353117720357676</v>
       </c>
       <c r="G93">
-        <v>-0.02365673814503484</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.0345458898242335</v>
+      </c>
+      <c r="H93">
+        <v>-0.02141912106101932</v>
+      </c>
+      <c r="I93">
+        <v>0.1536576012634902</v>
+      </c>
+      <c r="J93">
+        <v>-0.08069566183672021</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.2772147171021045</v>
+        <v>-0.301204528262198</v>
       </c>
       <c r="C94">
-        <v>0.07688634814033747</v>
+        <v>0.001709092788565434</v>
       </c>
       <c r="D94">
-        <v>0.05911971563870543</v>
+        <v>-0.0482085924284457</v>
       </c>
       <c r="E94">
-        <v>0.3764582776566693</v>
+        <v>0.1319973009485879</v>
       </c>
       <c r="F94">
-        <v>0.3025768983565681</v>
+        <v>0.342732910393096</v>
       </c>
       <c r="G94">
-        <v>0.2593939122140193</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2033232650508278</v>
+      </c>
+      <c r="H94">
+        <v>0.1204793808536578</v>
+      </c>
+      <c r="I94">
+        <v>0.01502126163874114</v>
+      </c>
+      <c r="J94">
+        <v>-0.1503647741611998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1880246350783925</v>
+        <v>-0.1344439847313891</v>
       </c>
       <c r="C95">
-        <v>0.007535216969501471</v>
+        <v>-0.08255247389598802</v>
       </c>
       <c r="D95">
-        <v>0.007838579761774166</v>
+        <v>-0.064207881970946</v>
       </c>
       <c r="E95">
-        <v>0.3543487724779258</v>
+        <v>0.0380481653741951</v>
       </c>
       <c r="F95">
-        <v>-0.708325017703317</v>
+        <v>0.07760333554793275</v>
       </c>
       <c r="G95">
-        <v>-0.4881003126372184</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.8961544794431369</v>
+      </c>
+      <c r="H95">
+        <v>-0.16778522697245</v>
+      </c>
+      <c r="I95">
+        <v>-0.1140347964787202</v>
+      </c>
+      <c r="J95">
+        <v>-0.2523245588009753</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2258699041991355</v>
+        <v>-0.2045082440474033</v>
       </c>
       <c r="C98">
-        <v>0.108826124725594</v>
+        <v>0.02226440448998148</v>
       </c>
       <c r="D98">
-        <v>-0.04183975303394152</v>
+        <v>-0.09002336727828177</v>
       </c>
       <c r="E98">
-        <v>-0.08919495704031145</v>
+        <v>-0.02903627019721584</v>
       </c>
       <c r="F98">
-        <v>-0.04968013818781949</v>
+        <v>-0.1686933649449559</v>
       </c>
       <c r="G98">
-        <v>0.007738703437296619</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.08239973313408483</v>
+      </c>
+      <c r="H98">
+        <v>-0.314318466175022</v>
+      </c>
+      <c r="I98">
+        <v>-0.1645105878982111</v>
+      </c>
+      <c r="J98">
+        <v>-0.01438355941555433</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.02277344931490381</v>
+        <v>-0.01702957651371554</v>
       </c>
       <c r="C101">
-        <v>-0.02343791834734026</v>
+        <v>-0.02316075391087455</v>
       </c>
       <c r="D101">
-        <v>0.03058234213874992</v>
+        <v>0.02054058195051793</v>
       </c>
       <c r="E101">
-        <v>-0.03505286539997819</v>
+        <v>0.03330207336424679</v>
       </c>
       <c r="F101">
-        <v>-0.01665218217040344</v>
+        <v>-0.06379193338571848</v>
       </c>
       <c r="G101">
-        <v>0.005060735127259242</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.01551026557588614</v>
+      </c>
+      <c r="H101">
+        <v>0.1112181086267051</v>
+      </c>
+      <c r="I101">
+        <v>-0.05631123562255999</v>
+      </c>
+      <c r="J101">
+        <v>-0.1110000731308364</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.11373459765263</v>
+        <v>-0.1210201165437787</v>
       </c>
       <c r="C102">
-        <v>-0.02226192986039209</v>
+        <v>-0.0155541552847763</v>
       </c>
       <c r="D102">
-        <v>0.04538542164838973</v>
+        <v>0.01067730045774616</v>
       </c>
       <c r="E102">
-        <v>0.09134316355476917</v>
+        <v>0.05598198387625548</v>
       </c>
       <c r="F102">
-        <v>0.01139248335288454</v>
+        <v>0.1005000462990134</v>
       </c>
       <c r="G102">
-        <v>-0.01110206645953367</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.0132393025365057</v>
+      </c>
+      <c r="H102">
+        <v>-0.0183301582463424</v>
+      </c>
+      <c r="I102">
+        <v>0.06080322418083024</v>
+      </c>
+      <c r="J102">
+        <v>0.03609115746805413</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01619853194381977</v>
+        <v>-0.03162982431165943</v>
       </c>
       <c r="C103">
-        <v>-0.00369619431954477</v>
+        <v>-0.001801692419972862</v>
       </c>
       <c r="D103">
-        <v>0.01547618857297465</v>
+        <v>0.0101105464696951</v>
       </c>
       <c r="E103">
-        <v>0.02483892475504394</v>
+        <v>0.02124968481314734</v>
       </c>
       <c r="F103">
-        <v>0.003782342978709782</v>
+        <v>0.02740037061798119</v>
       </c>
       <c r="G103">
-        <v>0.01093210911181394</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01167972868627858</v>
+      </c>
+      <c r="H103">
+        <v>0.01248080927877665</v>
+      </c>
+      <c r="I103">
+        <v>0.02541649370151318</v>
+      </c>
+      <c r="J103">
+        <v>0.003232503050417673</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
